--- a/venv/docs/MO.xlsx
+++ b/venv/docs/MO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" tabRatio="834"/>
+    <workbookView windowWidth="24135" windowHeight="13050" tabRatio="834" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="监控规则" sheetId="4" r:id="rId1"/>
@@ -459,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -474,7 +474,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,13 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -509,8 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +526,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -531,9 +541,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,8 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,22 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -600,9 +602,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,15 +618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,30 +639,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,145 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,11 +848,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,16 +873,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,6 +904,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -906,42 +923,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,10 +953,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,137 +965,137 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,9 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1485,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1512,7 +1509,7 @@
       </c>
     </row>
     <row r="2" ht="42" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1526,7 +1523,7 @@
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:4">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1535,7 @@
       </c>
     </row>
     <row r="4" ht="44" customHeight="1" spans="1:4">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1550,7 +1547,7 @@
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +1559,7 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1574,7 +1571,7 @@
       </c>
     </row>
     <row r="7" ht="49" customHeight="1" spans="1:4">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1583,7 @@
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1597,8 +1594,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="12"/>
+    <row r="9" ht="30" customHeight="1" spans="1:4">
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1609,17 +1606,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="24" customHeight="1" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" ht="22" customHeight="1" spans="1:4">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1630,8 +1627,8 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1640,8 +1637,8 @@
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1650,8 +1647,8 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1660,8 +1657,8 @@
       </c>
     </row>
     <row r="15" ht="22" customHeight="1" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1670,8 +1667,8 @@
       </c>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1975,8 +1972,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2015,7 +2012,9 @@
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>75</v>
@@ -2457,7 +2456,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2467,7 +2466,7 @@
     <col min="3" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="34" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:4">
+    <row r="2" ht="43" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" ht="19" customHeight="1" spans="1:4">
+    <row r="3" ht="37" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1" spans="1:4">
+    <row r="4" ht="42" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" ht="22" customHeight="1" spans="1:4">
+    <row r="5" ht="39" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:4">
+    <row r="6" ht="43" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>119</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:4">
+    <row r="7" ht="42" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -2577,7 +2576,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D8"/>
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -2602,7 +2601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" ht="28" customHeight="1" spans="1:4">
+    <row r="2" ht="27" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:4">
+    <row r="3" ht="34" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:4">
+    <row r="4" ht="36" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:4">
+    <row r="5" ht="30" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:4">
+    <row r="6" ht="34" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="1" spans="1:4">
+    <row r="7" ht="41" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>17201</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:4">
+    <row r="8" ht="37" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>128</v>
       </c>
